--- a/Team Mamoot/table schema.xlsx
+++ b/Team Mamoot/table schema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="72" windowWidth="7620" windowHeight="5352"/>
+    <workbookView xWindow="8400" yWindow="920" windowWidth="17240" windowHeight="14480" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ACFTREF" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,20 @@
     <sheet name="ENGINE" sheetId="6" r:id="rId5"/>
     <sheet name="MASTER" sheetId="7" r:id="rId6"/>
     <sheet name="RESERVED" sheetId="8" r:id="rId7"/>
+    <sheet name="Flightdata" sheetId="9" r:id="rId8"/>
+    <sheet name="ADSBExchange" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="537">
   <si>
     <t>CODE</t>
   </si>
@@ -92,24 +99,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CERTIFICATE-NUMBER</t>
-  </si>
-  <si>
     <t>OWNERSHIP</t>
   </si>
   <si>
-    <t>CERTIFICATE-DATE</t>
-  </si>
-  <si>
-    <t>EXPIRATION-DATE</t>
-  </si>
-  <si>
-    <t>EXPIRATION-FLAG</t>
-  </si>
-  <si>
-    <t>CERTIFICATE-ISSUE-COUNT</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -120,90 +112,6 @@
   </si>
   <si>
     <t>CITY</t>
-  </si>
-  <si>
-    <t>STATE-ABBREV</t>
-  </si>
-  <si>
-    <t>ZIP-CODE</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-COUNT</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-1</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-2</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-3</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-4</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-5</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-6</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-7</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-8</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-9</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-10</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-11</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-12</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-13</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-14</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-15</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-16</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-17</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-18</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-19</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-20</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-21</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-22</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-23</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-24</t>
-  </si>
-  <si>
-    <t>OTHER-NAMES-25</t>
   </si>
   <si>
     <t>00-0027</t>
@@ -860,24 +768,918 @@
   <si>
     <t>acftref</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>dayofmonth</t>
+  </si>
+  <si>
+    <t>dayofweek</t>
+  </si>
+  <si>
+    <t>flightdate</t>
+  </si>
+  <si>
+    <t>uniquecarrier</t>
+  </si>
+  <si>
+    <t>airlineid</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>tailnum</t>
+  </si>
+  <si>
+    <t>flightnum</t>
+  </si>
+  <si>
+    <t>originairportid</t>
+  </si>
+  <si>
+    <t>originairportseqid</t>
+  </si>
+  <si>
+    <t>origincitymarketid</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>origincityname</t>
+  </si>
+  <si>
+    <t>originstate</t>
+  </si>
+  <si>
+    <t>originstateips</t>
+  </si>
+  <si>
+    <t>originstatename</t>
+  </si>
+  <si>
+    <t>originwac</t>
+  </si>
+  <si>
+    <t>destairportid</t>
+  </si>
+  <si>
+    <t>destairportseqid</t>
+  </si>
+  <si>
+    <t>destcitymarketid</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>destcityname</t>
+  </si>
+  <si>
+    <t>deststate</t>
+  </si>
+  <si>
+    <t>deststateips</t>
+  </si>
+  <si>
+    <t>deststatename</t>
+  </si>
+  <si>
+    <t>destwac</t>
+  </si>
+  <si>
+    <t>crsdeptime</t>
+  </si>
+  <si>
+    <t>deptime</t>
+  </si>
+  <si>
+    <t>depdelay</t>
+  </si>
+  <si>
+    <t>depdelayminutes</t>
+  </si>
+  <si>
+    <t>depdel15</t>
+  </si>
+  <si>
+    <t>departuredelaygroups</t>
+  </si>
+  <si>
+    <t>deptimeblk</t>
+  </si>
+  <si>
+    <t>taxiout</t>
+  </si>
+  <si>
+    <t>wheelsoff</t>
+  </si>
+  <si>
+    <t>wheelson</t>
+  </si>
+  <si>
+    <t>taxiin</t>
+  </si>
+  <si>
+    <t>crsarrtime</t>
+  </si>
+  <si>
+    <t>arrtime</t>
+  </si>
+  <si>
+    <t>arrdelay</t>
+  </si>
+  <si>
+    <t>arrdelayminutes</t>
+  </si>
+  <si>
+    <t>arrdel15</t>
+  </si>
+  <si>
+    <t>arrivaldelaygroups</t>
+  </si>
+  <si>
+    <t>arrtimeblk</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>cancellationcode</t>
+  </si>
+  <si>
+    <t>diverted</t>
+  </si>
+  <si>
+    <t>crselapsedtime</t>
+  </si>
+  <si>
+    <t>actualelapsedtime</t>
+  </si>
+  <si>
+    <t>airtime</t>
+  </si>
+  <si>
+    <t>flights</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>distancegroup</t>
+  </si>
+  <si>
+    <t>carrierdelay</t>
+  </si>
+  <si>
+    <t>weatherdelay</t>
+  </si>
+  <si>
+    <t>nasdelay</t>
+  </si>
+  <si>
+    <t>securitydelay</t>
+  </si>
+  <si>
+    <t>lateaircraftdelay</t>
+  </si>
+  <si>
+    <t>firstdeptime</t>
+  </si>
+  <si>
+    <t>totaladdgtime</t>
+  </si>
+  <si>
+    <t>longestaddgtime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TSecs</t>
+  </si>
+  <si>
+    <t>Rcvr</t>
+  </si>
+  <si>
+    <t>Icao</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>GAlt</t>
+  </si>
+  <si>
+    <t>InHg</t>
+  </si>
+  <si>
+    <t>AltT</t>
+  </si>
+  <si>
+    <t>TAlt</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>CallSus</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>PosTime</t>
+  </si>
+  <si>
+    <t>Mlat</t>
+  </si>
+  <si>
+    <t>PosStale</t>
+  </si>
+  <si>
+    <t>IsTisb</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>SpdTyp</t>
+  </si>
+  <si>
+    <t>Vsi</t>
+  </si>
+  <si>
+    <t>VsiT</t>
+  </si>
+  <si>
+    <t>Trak</t>
+  </si>
+  <si>
+    <t>TrkH</t>
+  </si>
+  <si>
+    <t>TTrk</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mdl</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>CNum</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>OpCode</t>
+  </si>
+  <si>
+    <t>Sqk</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Dst</t>
+  </si>
+  <si>
+    <t>Brng</t>
+  </si>
+  <si>
+    <t>WTC</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Engines</t>
+  </si>
+  <si>
+    <t>EngType</t>
+  </si>
+  <si>
+    <t>EngMount</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Mil</t>
+  </si>
+  <si>
+    <t>Cou</t>
+  </si>
+  <si>
+    <t>HasPic</t>
+  </si>
+  <si>
+    <t>PicX</t>
+  </si>
+  <si>
+    <t>PicY</t>
+  </si>
+  <si>
+    <t>FlightsCount</t>
+  </si>
+  <si>
+    <t>CMsgs</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Trt</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Cos</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Cot</t>
+  </si>
+  <si>
+    <t>ResetTrail</t>
+  </si>
+  <si>
+    <t>HasSig</t>
+  </si>
+  <si>
+    <t>Sig</t>
+  </si>
+  <si>
+    <t>Optional?</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unique identifier of the aircraft.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of seconds that the aircraft has been tracked for.          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ICAO of the aircraft.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the ICAO is known to be invalid. This information comes from the local BaseStation.sqb database.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The registration.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The altitude in feet at standard pressure.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The altitude adjusted for local air pressure, should be roughly the height above mean sea level.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The air pressure in inches of mercury that was used to calculate the AMSL altitude from the standard pressure altitude. </t>
+  </si>
+  <si>
+    <t>The type of altitude transmitted by the aircraft: 0 = standard pressure altitude, 1 = indicated altitude (above mean sea level).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target altitude, in feet, set on the autopilot / FMS etc.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The callsign.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the callsign may not be correct.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aircraft's latitude over the ground.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aircraft's longitude over the ground.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time (at UTC in JavaScript ticks) that the position was last reported by the aircraft.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the last message received for the aircraft was from a TIS-B source.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ground speed in knots.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical speed in feet per minute.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = vertical speed is barometric, 1 = vertical speed is geometric. Default to barometric until told otherwise.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aircraft's track angle across the ground clockwise from 0° north.           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if Trak is the aircraft's heading, FALSE if it's the ground track. Default to ground track until told otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The track or heading currently set on the aircraft's autopilot or FMS.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aircraft model's ICAO type code.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the aircraft's model. Usually also includes the manufacturer's name.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manufacturer's name.                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aircraft's construction or serial number.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code and name of the departure airport.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code and name of the arrival airport.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of strings, each being a stopover on the route.          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the aircraft's operator.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The operator's ICAO code.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The squawk as a decimal number (e.g. a squawk of 7654 is passed as 7654, not 4012).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft is transmitting an emergency squawk.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distance to the aircraft in kilometres.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bearing from the browser to the aircraft clockwise from 0° north.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wake turbulence category of the aircraft - see enums.js for values.         </t>
+  </si>
+  <si>
+    <t>The number of engines the aircraft has. Usually '1', '2' etc. but can also be a string - see ICAO documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of engine the aircraft uses - see enums.js for values.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The placement of engines on the aircraft - see enums.js for values.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The species of the aircraft (helicopter, jet etc.) - see enums.js for values.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft appears to be operated by the military.          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The country that the aircraft is registered to.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft has a picture associated with it.           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The width of the picture in pixels.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The height of the picture in pixels.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of Flights records the aircraft has in the database.          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The count of messages received for the aircraft.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft is on the ground.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user tag found for the aircraft in the BaseStation.sqb local database.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft is flagged as interesting in the BaseStation.sqb local database.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail type - empty for plain trails, 'a' for trails that include altitude, 's' for trails that include speed.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transponder type - 0=Unknown, 1=Mode-S, 2=ADS-B (unknown version), 3=ADS-B 1, 4=ADS-B 2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The year that the aircraft was manufactured.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft has been seen on a SatCom ACARS feed (e.g. a JAERO feed).     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short trails - see note 1               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full trails - see note 2               </t>
+  </si>
+  <si>
+    <t>TRUE if the entire trail has been sent and the JavaScript should discard any existing trail history it's built up for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE if the aircraft has a signal level associated with it.          </t>
+  </si>
+  <si>
+    <t>The ID of the feed that last supplied information about the aircraft.</t>
+  </si>
+  <si>
+    <t>TRUE if the latitude and longitude appear to have been calculated by an MLAT server and were not transmitted by the aircraft</t>
+  </si>
+  <si>
+    <t>TRUE if the last position update is older than the display timeout value - usually only seen on MLAT aircraft in the merged feed</t>
+  </si>
+  <si>
+    <t>The type of speed that Spd represents. Only used with raw feeds. 0/missing = ground speed, 1 = ground speed reversing, 2 = indicated air speed, 3 = TRUE air speed.</t>
+  </si>
+  <si>
+    <t>The signal level for the last message received from the aircraft, as reported by the receiver. Not all receivers pass signal levels</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Specifies</t>
+  </si>
+  <si>
+    <t>Diverted</t>
+  </si>
+  <si>
+    <t>Elapsed</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Longest</t>
+  </si>
+  <si>
+    <t>https://www.transtats.bts.gov/DL_SelectFields.asp?Table_ID=236&amp;DB_Short_Name=On-Time</t>
+  </si>
+  <si>
+    <t>http://www.virtualradarserver.co.uk/Documentation/Formats/AircraftList.aspx</t>
+  </si>
+  <si>
+    <t>(1-4) Get Lookup Table</t>
+  </si>
+  <si>
+    <t>Day of week</t>
+  </si>
+  <si>
+    <t>Day of month</t>
+  </si>
+  <si>
+    <t>Flight Date (yyyymmdd)</t>
+  </si>
+  <si>
+    <t>Unique Carrier Code. When the same code has been used by multiple carriers, a numeric suffix is used for earlier users, for example, PA, PA(1), PA(2). Use this field for analysis across a range of years.</t>
+  </si>
+  <si>
+    <t>An identification number assigned by US DOT to identify a unique airline (carrier). A unique airline (carrier) is defined as one holding and reporting under the same DOT certificate regardless of its Code, Name, or holding company/corporation.</t>
+  </si>
+  <si>
+    <t>Code assigned by IATA and commonly used to identify a carrier. As the same code may have been assigned to different carriers over time, the code is not always unique. For analysis, use the Unique Carrier Code.</t>
+  </si>
+  <si>
+    <t>Tail Number</t>
+  </si>
+  <si>
+    <t>Flight Number</t>
+  </si>
+  <si>
+    <t>Origin Airport, Airport ID. An identification number assigned by US DOT to identify a unique airport. Use this field for airport analysis across a range of years because an airport can change its airport code and airport codes can be reused.</t>
+  </si>
+  <si>
+    <t>Origin Airport, Airport Sequence ID. An identification number assigned by US DOT to identify a unique airport at a given point of time. Airport attributes, such as airport name or coordinates, may change over time.</t>
+  </si>
+  <si>
+    <t>Origin Airport, City Market ID. City Market ID is an identification number assigned by US DOT to identify a city market. Use this field to consolidate airports serving the same city market.</t>
+  </si>
+  <si>
+    <t>Origin Airport</t>
+  </si>
+  <si>
+    <t>Origin Airport, City Name</t>
+  </si>
+  <si>
+    <t>Origin Airport, State Code</t>
+  </si>
+  <si>
+    <t>Origin Airport, State Fips</t>
+  </si>
+  <si>
+    <t>Origin Airport, State Name</t>
+  </si>
+  <si>
+    <t>Origin Airport, World Area Code</t>
+  </si>
+  <si>
+    <t>Destination Airport, Airport ID. An identification number assigned by US DOT to identify a unique airport. Use this field for airport analysis across a range of years because an airport can change its airport code and airport codes can be reused.</t>
+  </si>
+  <si>
+    <t>Destination Airport, Airport Sequence ID. An identification number assigned by US DOT to identify a unique airport at a given point of time. Airport attributes, such as airport name or coordinates, may change over time.</t>
+  </si>
+  <si>
+    <t>Destination Airport, City Market ID. City Market ID is an identification number assigned by US DOT to identify a city market. Use this field to consolidate airports serving the same city market.</t>
+  </si>
+  <si>
+    <t>Destination Airport</t>
+  </si>
+  <si>
+    <t>Destination Airport, City Name</t>
+  </si>
+  <si>
+    <t>Destination Airport, State Code</t>
+  </si>
+  <si>
+    <t>Destination Airport, State Fips</t>
+  </si>
+  <si>
+    <t>Destination Airport, State Name</t>
+  </si>
+  <si>
+    <t>Destination Airport, World Area Code</t>
+  </si>
+  <si>
+    <t>CRS Departure Time (local time: hhmm)</t>
+  </si>
+  <si>
+    <t>Actual Departure Time (local time: hhmm)</t>
+  </si>
+  <si>
+    <t>Difference in minutes between scheduled and actual departure time. Early departures show negative numbers.</t>
+  </si>
+  <si>
+    <t>Difference in minutes between scheduled and actual departure time. Early departures set to 0.</t>
+  </si>
+  <si>
+    <t>Departure Delay Indicator, 15 Minutes or More (1=Yes)</t>
+  </si>
+  <si>
+    <t>Departure Delay intervals, every (15 minutes from &lt;-15 to &gt;180)</t>
+  </si>
+  <si>
+    <t>CRS Departure Time Block, Hourly Intervals</t>
+  </si>
+  <si>
+    <t>Taxi Out Time, in Minutes</t>
+  </si>
+  <si>
+    <t>Wheels Off Time (local time: hhmm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheels On Time (local time: hhmm)  </t>
+  </si>
+  <si>
+    <t>Taxi In Time, in Minutes</t>
+  </si>
+  <si>
+    <t>CRS Arrival Time (local time: hhmm)</t>
+  </si>
+  <si>
+    <t>Actual Arrival Time (local time: hhmm)</t>
+  </si>
+  <si>
+    <t>Difference in minutes between scheduled and actual arrival time. Early arrivals show negative numbers.</t>
+  </si>
+  <si>
+    <t>Difference in minutes between scheduled and actual arrival time. Early arrivals set to 0.</t>
+  </si>
+  <si>
+    <t>Arrival Delay Indicator, 15 Minutes or More (1=Yes)</t>
+  </si>
+  <si>
+    <t>Arrival Delay intervals, every (15-minutes from &lt;-15 to &gt;180)</t>
+  </si>
+  <si>
+    <t>CRS Arrival Time Block, Hourly Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled Flight Indicator (1=Yes)  </t>
+  </si>
+  <si>
+    <t>Specifies The Reason For Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diverted Flight Indicator (1=Yes)  </t>
+  </si>
+  <si>
+    <t>CRS Elapsed Time of Flight, in Minutes</t>
+  </si>
+  <si>
+    <t>Elapsed Time of Flight, in Minutes</t>
+  </si>
+  <si>
+    <t>Flight Time, in Minutes</t>
+  </si>
+  <si>
+    <t>Number of Flights</t>
+  </si>
+  <si>
+    <t>Distance between airports (miles)</t>
+  </si>
+  <si>
+    <t>Distance Intervals, every 250 Miles, for Flight Segment</t>
+  </si>
+  <si>
+    <t>Carrier Delay, in Minutes</t>
+  </si>
+  <si>
+    <t>Weather Delay, in Minutes</t>
+  </si>
+  <si>
+    <t>Security Delay, in Minutes</t>
+  </si>
+  <si>
+    <t>Late Aircraft Delay, in Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Gate Departure Time at Origin Airport  </t>
+  </si>
+  <si>
+    <t>Total Ground Time Away from Gate for Gate Return or Cancelled Flight</t>
+  </si>
+  <si>
+    <t>Longest Time Away from Gate for Gate Return or Cancelled Flight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -888,6 +1690,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -897,7 +1724,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -907,26 +1734,135 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,8 +1884,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="33">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1251,19 +2243,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1277,7 +2269,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1288,12 +2280,12 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1302,10 +2294,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +2325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1344,10 +2336,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1358,10 +2350,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1372,10 +2364,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1386,10 +2378,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1400,10 +2392,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1414,10 +2406,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1442,148 +2434,76 @@
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AQ41"/>
+  <dimension ref="B1:AP41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" x14ac:dyDescent="0.4">
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:42">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="2:42">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1594,585 +2514,590 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:42">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:42">
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:42">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:42">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:42">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:42">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:42">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:42">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:42">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:42">
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:42">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:42">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:42">
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="E41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2180,18 +3105,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:39">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2231,7 +3156,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:39">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2242,7 +3167,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2279,541 +3204,546 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:39">
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39">
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39">
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39">
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39">
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39">
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39">
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39">
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39">
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39">
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39">
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2825,14 +3755,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2843,138 +3773,143 @@
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2986,14 +3921,14 @@
       <selection activeCell="G11" activeCellId="1" sqref="C3:D8 G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3002,7 +3937,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3013,96 +3948,101 @@
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3114,14 +4054,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:36">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3158,7 +4098,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:36">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3169,488 +4109,493 @@
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36">
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36">
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36">
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36">
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36">
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36">
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36">
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:36">
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36">
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36">
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36">
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36">
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36">
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:36">
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3659,18 +4604,18 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3684,7 +4629,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3695,190 +4640,2062 @@
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="I8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="I14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="I15" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="56">
+      <c r="A8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="56">
+      <c r="A9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56">
+      <c r="A10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="56">
+      <c r="A13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="56">
+      <c r="A14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="56">
+      <c r="A15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="56">
+      <c r="A22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="56">
+      <c r="A23" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="56">
+      <c r="A24" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28">
+      <c r="A33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28">
+      <c r="A34" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28">
+      <c r="A36" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28">
+      <c r="A44" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28">
+      <c r="A45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28">
+      <c r="A64" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28">
+      <c r="A65" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="73.6640625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28">
+      <c r="A6" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28">
+      <c r="A10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28">
+      <c r="A11" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28">
+      <c r="A18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28">
+      <c r="A19" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28">
+      <c r="A22" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28">
+      <c r="A24" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28">
+      <c r="A26" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28">
+      <c r="A42" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28">
+      <c r="A56" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28">
+      <c r="A62" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28">
+      <c r="A64" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Mamoot/table schema.xlsx
+++ b/Team Mamoot/table schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="276">
   <si>
     <t>CODE</t>
   </si>
@@ -859,6 +859,41 @@
   </si>
   <si>
     <t>acftref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - Glider
+2 - Balloon
+3 - Blimp/Dirigible
+4 - Fixed wing single engine
+5 - Fixed wing multi engine
+6 - Rotorcraft
+7 - Weight-shift-control
+8 - Powered Parachute
+9 - Gyroplane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - None
+1 - Reciprocating
+2 - Turbo-prop
+3 - Turbo-shaft
+4 - Turbo-jet
+5 - Turbo-fan
+6 - Ramjet
+7 - 2 Cycle
+8 - 4 Cycle
+9 – Unknown
+10 – Electric
+11 - Rotary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,6 +982,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,7 +1293,7 @@
   <dimension ref="B1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1261,6 +1302,7 @@
     <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.4">
@@ -1290,6 +1332,7 @@
       <c r="E2" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -1304,6 +1347,7 @@
       <c r="E3" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -1318,13 +1362,16 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1332,8 +1379,9 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:17" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1346,8 +1394,11 @@
       <c r="E6" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F6" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="208.8" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1359,6 +1410,9 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>172</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
@@ -1374,6 +1428,7 @@
       <c r="E8" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -1388,6 +1443,7 @@
       <c r="E9" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -1402,6 +1458,7 @@
       <c r="E10" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
@@ -1416,6 +1473,7 @@
       <c r="E11" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -1430,6 +1488,7 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
@@ -1444,6 +1503,7 @@
       <c r="E13" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
